--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-03 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-03 日常维护.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
   <si>
     <t>时间</t>
   </si>
@@ -50,6 +50,15 @@
   </si>
   <si>
     <t>成本价格必须提前设置，否则生成的订单无法获取到成本</t>
+  </si>
+  <si>
+    <t>2、历史商品成本审核</t>
+  </si>
+  <si>
+    <t>吕海琴</t>
+  </si>
+  <si>
+    <t>需求</t>
   </si>
 </sst>
 </file>
@@ -57,9 +66,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -782,6 +791,44 @@
         <a:xfrm>
           <a:off x="1676400" y="742950"/>
           <a:ext cx="8392795" cy="7421245"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>544195</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>29210</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="1519896780(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="8658225"/>
+          <a:ext cx="7754620" cy="4115435"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1051,15 +1098,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomLeft" activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="21.375" customWidth="1"/>
     <col min="2" max="2" width="77" customWidth="1"/>
@@ -1115,6 +1162,23 @@
         <v>11</v>
       </c>
     </row>
+    <row r="47" spans="2:6">
+      <c r="B47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-03 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-03 日常维护.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
   <si>
     <t>时间</t>
   </si>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t>需求</t>
+  </si>
+  <si>
+    <t>1、按上次拉的尼尔森的数据格式，拉下2月份的</t>
+  </si>
+  <si>
+    <t>张龙云</t>
   </si>
 </sst>
 </file>
@@ -88,13 +94,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -118,44 +117,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -174,9 +135,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -197,26 +158,64 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -224,9 +223,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,6 +253,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -266,168 +434,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,17 +503,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -538,6 +533,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -546,10 +552,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -558,133 +564,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -829,6 +835,44 @@
         <a:xfrm>
           <a:off x="1828800" y="8658225"/>
           <a:ext cx="7754620" cy="4115435"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>763270</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>29210</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr="1519957075(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1733550" y="13306425"/>
+          <a:ext cx="8068945" cy="4096385"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1098,12 +1142,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F47" sqref="F47"/>
+      <selection pane="bottomLeft" activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1179,6 +1223,26 @@
         <v>10</v>
       </c>
     </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="2">
+        <v>43161</v>
+      </c>
+      <c r="B74" t="s">
+        <v>15</v>
+      </c>
+      <c r="C74" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-03 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-03 日常维护.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>时间</t>
   </si>
@@ -65,6 +65,24 @@
   </si>
   <si>
     <t>张龙云</t>
+  </si>
+  <si>
+    <t>1、幸运星期一抽奖一次</t>
+  </si>
+  <si>
+    <t>BUG</t>
+  </si>
+  <si>
+    <t>测试时，未发现设置、程序一次，重置异常抽奖的会员抽奖次数</t>
+  </si>
+  <si>
+    <t>2、订单推送失败，提示重量问题</t>
+  </si>
+  <si>
+    <t>李海涛/王奎</t>
+  </si>
+  <si>
+    <t>经查商品 156421 UPS系统显示的重量为 2050；交由 王奎 查询推送的重量</t>
   </si>
 </sst>
 </file>
@@ -117,6 +135,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -135,9 +184,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -172,67 +221,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,6 +277,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -289,7 +313,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,79 +397,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,54 +452,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,6 +521,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -533,17 +562,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -552,10 +570,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -564,133 +582,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -873,6 +891,120 @@
         <a:xfrm>
           <a:off x="1733550" y="13306425"/>
           <a:ext cx="8068945" cy="4096385"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1619250</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>429895</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>86360</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3" descr="1520217818(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1619250" y="18030825"/>
+          <a:ext cx="7849870" cy="3372485"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3258820</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>95885</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4" descr="1520217909(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9896475" y="18030825"/>
+          <a:ext cx="7840345" cy="4067810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>563245</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>67310</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5" descr="1520250686(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1800225" y="22755225"/>
+          <a:ext cx="7802245" cy="3772535"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1142,12 +1274,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G74"/>
+  <dimension ref="A1:G129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F74" sqref="F74"/>
+      <selection pane="bottomLeft" activeCell="G129" sqref="G129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1243,6 +1375,49 @@
         <v>10</v>
       </c>
     </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="2">
+        <v>43164</v>
+      </c>
+      <c r="B102" t="s">
+        <v>17</v>
+      </c>
+      <c r="C102" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102" t="s">
+        <v>9</v>
+      </c>
+      <c r="E102" t="s">
+        <v>18</v>
+      </c>
+      <c r="F102" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7">
+      <c r="B129" t="s">
+        <v>20</v>
+      </c>
+      <c r="C129" t="s">
+        <v>8</v>
+      </c>
+      <c r="D129" t="s">
+        <v>21</v>
+      </c>
+      <c r="E129" t="s">
+        <v>18</v>
+      </c>
+      <c r="F129" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-03 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-03 日常维护.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <t>时间</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>经查商品 156421 UPS系统显示的重量为 2050；交由 王奎 查询推送的重量</t>
+  </si>
+  <si>
+    <t>1、11984080  这个订单取消之后，包邮没有恢复，你查一下</t>
   </si>
 </sst>
 </file>
@@ -91,9 +94,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -112,6 +115,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -166,6 +176,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -207,6 +224,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -214,43 +238,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,18 +274,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -295,19 +358,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,36 +424,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -367,36 +436,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -416,42 +455,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,10 +573,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -582,133 +585,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1013,6 +1016,82 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>563245</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>38735</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6" descr="1520412087(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1762125" y="27117675"/>
+          <a:ext cx="7840345" cy="4010660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2992120</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>133985</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7" descr="1520412166(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9858375" y="27203400"/>
+          <a:ext cx="7611745" cy="2477135"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1274,12 +1353,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G129"/>
+  <dimension ref="A1:G155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G129" sqref="G129"/>
+      <selection pane="bottomLeft" activeCell="E164" sqref="E164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1418,6 +1497,26 @@
         <v>22</v>
       </c>
     </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="2">
+        <v>43166</v>
+      </c>
+      <c r="B155" t="s">
+        <v>23</v>
+      </c>
+      <c r="C155" t="s">
+        <v>8</v>
+      </c>
+      <c r="D155" t="s">
+        <v>9</v>
+      </c>
+      <c r="E155" t="s">
+        <v>18</v>
+      </c>
+      <c r="F155" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-03 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-03 日常维护.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>时间</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>1、11984080  这个订单取消之后，包邮没有恢复，你查一下</t>
+  </si>
+  <si>
+    <t>1、拉数据 近半年内 购买过诺优能，爱他美奶粉(以下6款商品中的任意一款）的用户，且近30天内没有购买过诺优能爱他美的用户（诺优能，爱他美整个品牌）。</t>
+  </si>
+  <si>
+    <t>朱伟</t>
   </si>
 </sst>
 </file>
@@ -94,9 +100,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -715,7 +721,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -724,6 +730,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1092,6 +1101,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>715645</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>95885</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8" descr="1520823262(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1866900" y="31994475"/>
+          <a:ext cx="9621520" cy="4163060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1353,12 +1400,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G155"/>
+  <dimension ref="A1:G182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E164" sqref="E164"/>
+      <selection pane="bottomLeft" activeCell="E191" sqref="E191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1517,6 +1564,26 @@
         <v>10</v>
       </c>
     </row>
+    <row r="182" ht="27" spans="1:6">
+      <c r="A182" s="2">
+        <v>43171</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C182" t="s">
+        <v>25</v>
+      </c>
+      <c r="D182" t="s">
+        <v>9</v>
+      </c>
+      <c r="E182" t="s">
+        <v>14</v>
+      </c>
+      <c r="F182" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-03 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-03 日常维护.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>时间</t>
   </si>
@@ -92,6 +92,15 @@
   </si>
   <si>
     <t>朱伟</t>
+  </si>
+  <si>
+    <t>1、1991892  这个是顾客的内码  ===秒杀商品(商品ID:125035)39元   顾客无法加入购车.麻烦查下什么原因</t>
+  </si>
+  <si>
+    <t>朱伟/雪儿</t>
+  </si>
+  <si>
+    <t>经测试，安卓、WAP、PC 是正常的，IOS有问题，需要IOS前端处理</t>
   </si>
 </sst>
 </file>
@@ -99,10 +108,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -128,6 +137,105 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -151,105 +259,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -280,6 +289,126 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -305,126 +434,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,30 +480,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -509,6 +494,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,6 +557,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -579,10 +588,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -591,137 +600,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -730,6 +739,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1139,6 +1151,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4515485</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>57785</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9" descr="1520937616(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1809750" y="36957000"/>
+          <a:ext cx="4334510" cy="3105785"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1400,12 +1450,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G182"/>
+  <dimension ref="A1:G210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E191" sqref="E191"/>
+      <selection pane="bottomLeft" activeCell="B219" sqref="B219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1584,6 +1634,29 @@
         <v>10</v>
       </c>
     </row>
+    <row r="210" ht="27" spans="1:7">
+      <c r="A210" s="2">
+        <v>43172</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C210" t="s">
+        <v>27</v>
+      </c>
+      <c r="D210" t="s">
+        <v>9</v>
+      </c>
+      <c r="E210" t="s">
+        <v>18</v>
+      </c>
+      <c r="F210" t="s">
+        <v>10</v>
+      </c>
+      <c r="G210" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-03 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-03 日常维护.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>时间</t>
   </si>
@@ -101,6 +101,10 @@
   </si>
   <si>
     <t>经测试，安卓、WAP、PC 是正常的，IOS有问题，需要IOS前端处理</t>
+  </si>
+  <si>
+    <t>1、需要拉一份档案系统商城自营条码数据，需求：SKUID   采购状态  流程状态 SKU状态  销售状态   采购成本  条形码，谢谢
+滞销商品需匹配条码及成本对照，用于线下特卖</t>
   </si>
 </sst>
 </file>
@@ -108,10 +112,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -137,6 +141,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -236,29 +263,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -289,6 +293,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -404,36 +438,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,6 +484,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -494,15 +522,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,21 +576,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -588,10 +592,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -600,133 +604,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1189,6 +1193,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1258570</xdr:colOff>
+      <xdr:row>273</xdr:row>
+      <xdr:rowOff>106045</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10" descr="3b4bdf66c884e5fffb2e783a482c6ea"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1752600" y="40947975"/>
+          <a:ext cx="8545195" cy="7049770"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1450,12 +1492,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G210"/>
+  <dimension ref="A1:G232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A233" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B219" sqref="B219"/>
+      <selection pane="bottomLeft" activeCell="E242" sqref="E242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1638,7 +1680,7 @@
       <c r="A210" s="2">
         <v>43172</v>
       </c>
-      <c r="B210" s="4" t="s">
+      <c r="B210" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C210" t="s">
@@ -1655,6 +1697,26 @@
       </c>
       <c r="G210" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="232" ht="40.5" spans="1:6">
+      <c r="A232" s="2">
+        <v>43173</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C232" t="s">
+        <v>8</v>
+      </c>
+      <c r="D232" t="s">
+        <v>9</v>
+      </c>
+      <c r="E232" t="s">
+        <v>14</v>
+      </c>
+      <c r="F232" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-03 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-03 日常维护.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t>时间</t>
   </si>
@@ -105,6 +105,15 @@
   <si>
     <t>1、需要拉一份档案系统商城自营条码数据，需求：SKUID   采购状态  流程状态 SKU状态  销售状态   采购成本  条形码，谢谢
 滞销商品需匹配条码及成本对照，用于线下特卖</t>
+  </si>
+  <si>
+    <t>2、4794824   11986263 此会员的这个订单刚才提交订单时，未输密码就提示已支付，实际是没有支付的。麻烦核实下是什么情况。</t>
+  </si>
+  <si>
+    <t>雪儿</t>
+  </si>
+  <si>
+    <t>已解决</t>
   </si>
 </sst>
 </file>
@@ -113,9 +122,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -323,157 +332,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,145 +601,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1231,6 +1240,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>276</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5048885</xdr:colOff>
+      <xdr:row>297</xdr:row>
+      <xdr:rowOff>133985</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11" descr="1521011272(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1876425" y="48682275"/>
+          <a:ext cx="4801235" cy="3629660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1492,12 +1539,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G232"/>
+  <dimension ref="A1:G276"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A233" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A257" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E242" sqref="E242"/>
+      <selection pane="bottomLeft" activeCell="B281" sqref="B281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1703,7 +1750,7 @@
       <c r="A232" s="2">
         <v>43173</v>
       </c>
-      <c r="B232" s="4" t="s">
+      <c r="B232" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C232" t="s">
@@ -1717,6 +1764,23 @@
       </c>
       <c r="F232" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="276" ht="27" spans="2:6">
+      <c r="B276" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C276" t="s">
+        <v>31</v>
+      </c>
+      <c r="D276" t="s">
+        <v>9</v>
+      </c>
+      <c r="E276" t="s">
+        <v>18</v>
+      </c>
+      <c r="F276" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-03 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-03 日常维护.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
     <t>时间</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>已解决</t>
+  </si>
+  <si>
+    <t>1、拉取数据（徐汇、闵行、长宁一年内有购买记录）（全上海17年至今有购买记录）（全上海2年内有购买记录）</t>
+  </si>
+  <si>
+    <t>夏颖/张丹</t>
   </si>
 </sst>
 </file>
@@ -121,10 +127,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -150,6 +156,65 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -173,16 +238,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -191,21 +256,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,51 +278,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -302,6 +308,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -332,13 +410,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,60 +458,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -465,24 +489,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,6 +499,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -516,6 +537,26 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,41 +593,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -601,10 +607,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -613,133 +619,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1278,6 +1284,82 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>301</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>857885</xdr:colOff>
+      <xdr:row>323</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12" descr="企业微信截图_1521513069846"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1914525" y="53159025"/>
+          <a:ext cx="6439535" cy="3810635"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1409700</xdr:colOff>
+      <xdr:row>302</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1619250</xdr:colOff>
+      <xdr:row>307</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13" descr="693673446687388339"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8905875" y="53206650"/>
+          <a:ext cx="1752600" cy="962025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1539,12 +1621,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G276"/>
+  <dimension ref="A1:G300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A257" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A290" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B281" sqref="B281"/>
+      <selection pane="bottomLeft" activeCell="B300" sqref="B300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1767,7 +1849,7 @@
       </c>
     </row>
     <row r="276" ht="27" spans="2:6">
-      <c r="B276" s="4" t="s">
+      <c r="B276" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C276" t="s">
@@ -1781,6 +1863,26 @@
       </c>
       <c r="F276" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="300" ht="27" spans="1:6">
+      <c r="A300" s="2">
+        <v>43179</v>
+      </c>
+      <c r="B300" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C300" t="s">
+        <v>34</v>
+      </c>
+      <c r="D300" t="s">
+        <v>9</v>
+      </c>
+      <c r="E300" t="s">
+        <v>14</v>
+      </c>
+      <c r="F300" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-03 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-03 日常维护.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
   <si>
     <t>时间</t>
   </si>
@@ -120,6 +120,12 @@
   </si>
   <si>
     <t>夏颖/张丹</t>
+  </si>
+  <si>
+    <t>1、4668059  白金卡会员  客户3月份没有享过包邮，现在下单不会享受包邮。你看下什么情况。谢谢！</t>
+  </si>
+  <si>
+    <t>已经处理</t>
   </si>
 </sst>
 </file>
@@ -127,10 +133,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -149,8 +155,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,54 +209,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -262,24 +249,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,6 +284,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -308,6 +314,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -320,7 +356,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,7 +398,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,13 +440,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,12 +488,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -417,78 +495,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,21 +505,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -537,26 +528,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -593,6 +564,41 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -607,10 +613,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -619,133 +625,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1360,6 +1366,82 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>327</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4753610</xdr:colOff>
+      <xdr:row>344</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14" descr="1521608086(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1819275" y="57673875"/>
+          <a:ext cx="4563110" cy="2915285"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5324475</xdr:colOff>
+      <xdr:row>327</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>753110</xdr:colOff>
+      <xdr:row>349</xdr:row>
+      <xdr:rowOff>38735</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15" descr="1521608095(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6953250" y="57664350"/>
+          <a:ext cx="4572635" cy="3810635"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1621,12 +1703,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G300"/>
+  <dimension ref="A1:G326"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A290" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A302" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B300" sqref="B300"/>
+      <selection pane="bottomLeft" activeCell="E326" sqref="E326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1869,7 +1951,7 @@
       <c r="A300" s="2">
         <v>43179</v>
       </c>
-      <c r="B300" s="4" t="s">
+      <c r="B300" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C300" t="s">
@@ -1883,6 +1965,26 @@
       </c>
       <c r="F300" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="326" ht="27" spans="1:6">
+      <c r="A326" s="2">
+        <v>43180</v>
+      </c>
+      <c r="B326" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C326" t="s">
+        <v>31</v>
+      </c>
+      <c r="D326" t="s">
+        <v>9</v>
+      </c>
+      <c r="E326" t="s">
+        <v>18</v>
+      </c>
+      <c r="F326" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-03 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-03 日常维护.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>时间</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>已经处理</t>
+  </si>
+  <si>
+    <t>1、商品分时段成本技术后台审核</t>
   </si>
 </sst>
 </file>
@@ -133,10 +136,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -155,32 +158,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,6 +180,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -203,15 +242,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,52 +273,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,14 +289,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,13 +317,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,72 +353,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -422,12 +449,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -452,12 +473,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -470,19 +485,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,6 +508,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -519,15 +537,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,10 +573,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -582,21 +589,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -605,6 +597,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -613,10 +616,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -625,137 +628,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -764,9 +767,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1442,6 +1442,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>352</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1058545</xdr:colOff>
+      <xdr:row>380</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16" descr="895358206535351820"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1885950" y="62083950"/>
+          <a:ext cx="8211820" cy="4677410"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1703,12 +1741,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G326"/>
+  <dimension ref="A1:G352"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A302" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A326" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E326" sqref="E326"/>
+      <selection pane="bottomLeft" activeCell="F352" sqref="F352"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1971,7 +2009,7 @@
       <c r="A326" s="2">
         <v>43180</v>
       </c>
-      <c r="B326" s="4" t="s">
+      <c r="B326" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C326" t="s">
@@ -1985,6 +2023,26 @@
       </c>
       <c r="F326" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6">
+      <c r="A352" s="2">
+        <v>43182</v>
+      </c>
+      <c r="B352" t="s">
+        <v>37</v>
+      </c>
+      <c r="C352" t="s">
+        <v>8</v>
+      </c>
+      <c r="D352" t="s">
+        <v>9</v>
+      </c>
+      <c r="E352" t="s">
+        <v>14</v>
+      </c>
+      <c r="F352" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-03 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-03 日常维护.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
   <si>
     <t>时间</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>1、商品分时段成本技术后台审核</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、会员号：119733  电话：13601876322    注册邮箱：slyly@vip.sina.com麻烦帮忙处理下，谢谢！这个你看下，客户要的就是2006-2012年间的订单数据。  </t>
   </si>
 </sst>
 </file>
@@ -137,9 +140,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -159,14 +162,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,9 +198,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,32 +212,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,23 +237,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,6 +259,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -280,6 +274,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -289,14 +299,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,19 +320,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,19 +416,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,133 +488,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,6 +511,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -526,17 +544,40 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,55 +597,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -616,10 +619,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -628,137 +631,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -767,6 +770,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1480,6 +1486,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>384</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5220335</xdr:colOff>
+      <xdr:row>406</xdr:row>
+      <xdr:rowOff>29210</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17" descr="1521962755(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1847850" y="67675125"/>
+          <a:ext cx="5001260" cy="3734435"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1741,12 +1785,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G352"/>
+  <dimension ref="A1:G383"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A326" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A365" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F352" sqref="F352"/>
+      <selection pane="bottomLeft" activeCell="D389" sqref="D389"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2045,6 +2089,26 @@
         <v>10</v>
       </c>
     </row>
+    <row r="383" ht="27" spans="1:6">
+      <c r="A383" s="2">
+        <v>43184</v>
+      </c>
+      <c r="B383" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C383" t="s">
+        <v>31</v>
+      </c>
+      <c r="D383" t="s">
+        <v>9</v>
+      </c>
+      <c r="E383" t="s">
+        <v>14</v>
+      </c>
+      <c r="F383" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-03 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-03 日常维护.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
   <si>
     <t>时间</t>
   </si>
@@ -132,6 +132,21 @@
   </si>
   <si>
     <t xml:space="preserve">1、会员号：119733  电话：13601876322    注册邮箱：slyly@vip.sina.com麻烦帮忙处理下，谢谢！这个你看下，客户要的就是2006-2012年间的订单数据。  </t>
+  </si>
+  <si>
+    <t>1、翼支付需求、开发时间评估</t>
+  </si>
+  <si>
+    <t>毛晓冬</t>
+  </si>
+  <si>
+    <t>2、财务结算请款打印单需要将票据备注信息打印出来-技术评估</t>
+  </si>
+  <si>
+    <t>新需求</t>
+  </si>
+  <si>
+    <t>3、14215 科睿（香港）供应链管理有限公司  币种设置错误</t>
   </si>
 </sst>
 </file>
@@ -139,10 +154,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -162,14 +177,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -177,7 +207,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,24 +265,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -236,8 +297,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,61 +319,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -320,187 +335,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,16 +530,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,11 +568,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,7 +602,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,38 +621,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,10 +634,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -631,137 +646,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -770,9 +785,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1524,6 +1536,158 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>409</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4458335</xdr:colOff>
+      <xdr:row>435</xdr:row>
+      <xdr:rowOff>114935</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18" descr="企业微信截图_15221173409314"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1924050" y="72028050"/>
+          <a:ext cx="4163060" cy="4439285"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>438</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4696460</xdr:colOff>
+      <xdr:row>462</xdr:row>
+      <xdr:rowOff>29210</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="图片 19" descr="1522142657(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1790700" y="76981050"/>
+          <a:ext cx="4534535" cy="4029710"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5067300</xdr:colOff>
+      <xdr:row>439</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>505460</xdr:colOff>
+      <xdr:row>459</xdr:row>
+      <xdr:rowOff>86360</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="图片 20" descr="1522142707(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6696075" y="77066775"/>
+          <a:ext cx="4582160" cy="3486785"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>465</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1372870</xdr:colOff>
+      <xdr:row>514</xdr:row>
+      <xdr:rowOff>10795</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="图片 21" descr="231185160822962908"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1790700" y="81581625"/>
+          <a:ext cx="7078345" cy="8326120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1785,12 +1949,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G383"/>
+  <dimension ref="A1:G464"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A365" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A446" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D389" sqref="D389"/>
+      <selection pane="bottomLeft" activeCell="F464" sqref="F464"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2093,7 +2257,7 @@
       <c r="A383" s="2">
         <v>43184</v>
       </c>
-      <c r="B383" s="4" t="s">
+      <c r="B383" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C383" t="s">
@@ -2107,6 +2271,60 @@
       </c>
       <c r="F383" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6">
+      <c r="A409" s="2">
+        <v>43186</v>
+      </c>
+      <c r="B409" t="s">
+        <v>39</v>
+      </c>
+      <c r="C409" t="s">
+        <v>40</v>
+      </c>
+      <c r="D409" t="s">
+        <v>9</v>
+      </c>
+      <c r="E409" t="s">
+        <v>14</v>
+      </c>
+      <c r="F409" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="438" spans="2:6">
+      <c r="B438" t="s">
+        <v>41</v>
+      </c>
+      <c r="C438" t="s">
+        <v>8</v>
+      </c>
+      <c r="D438" t="s">
+        <v>9</v>
+      </c>
+      <c r="E438" t="s">
+        <v>42</v>
+      </c>
+      <c r="F438" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="464" spans="2:6">
+      <c r="B464" t="s">
+        <v>43</v>
+      </c>
+      <c r="C464" t="s">
+        <v>13</v>
+      </c>
+      <c r="D464" t="s">
+        <v>9</v>
+      </c>
+      <c r="E464" t="s">
+        <v>14</v>
+      </c>
+      <c r="F464" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-03 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-03 日常维护.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
   <si>
     <t>时间</t>
   </si>
@@ -147,6 +147,12 @@
   </si>
   <si>
     <t>3、14215 科睿（香港）供应链管理有限公司  币种设置错误</t>
+  </si>
+  <si>
+    <t>1、特卖开通账号和权限</t>
+  </si>
+  <si>
+    <t>袁楚</t>
   </si>
 </sst>
 </file>
@@ -154,10 +160,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -177,9 +183,63 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -190,9 +250,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,55 +287,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -281,17 +311,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,21 +325,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -335,73 +341,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,109 +515,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,6 +560,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -564,21 +585,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,20 +606,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -634,10 +640,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -646,133 +652,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1680,6 +1686,44 @@
         <a:xfrm>
           <a:off x="1790700" y="81581625"/>
           <a:ext cx="7078345" cy="8326120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>518</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4934585</xdr:colOff>
+      <xdr:row>540</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="图片 22" descr="1522212773(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1676400" y="90582750"/>
+          <a:ext cx="4886960" cy="3782060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1949,12 +1993,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G464"/>
+  <dimension ref="A1:G517"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A446" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A497" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F464" sqref="F464"/>
+      <selection pane="bottomLeft" activeCell="F517" sqref="F517"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2327,6 +2371,26 @@
         <v>32</v>
       </c>
     </row>
+    <row r="517" spans="1:6">
+      <c r="A517" s="2">
+        <v>43187</v>
+      </c>
+      <c r="B517" t="s">
+        <v>44</v>
+      </c>
+      <c r="C517" t="s">
+        <v>45</v>
+      </c>
+      <c r="D517" t="s">
+        <v>9</v>
+      </c>
+      <c r="E517" t="s">
+        <v>14</v>
+      </c>
+      <c r="F517" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-03 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-03 日常维护.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12780"/>
+    <workbookView windowWidth="28080" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="李海涛" sheetId="1" r:id="rId1"/>
@@ -160,10 +160,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -182,8 +182,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,86 +265,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -296,23 +289,23 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,6 +318,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -341,19 +341,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,163 +509,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,17 +535,41 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,36 +598,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -624,11 +618,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,10 +640,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -652,133 +652,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1993,12 +1993,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G517"/>
+  <dimension ref="A1:G542"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A497" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A512" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F517" sqref="F517"/>
+      <selection pane="bottomLeft" activeCell="C540" sqref="C540"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2391,6 +2391,9 @@
         <v>10</v>
       </c>
     </row>
+    <row r="542" spans="1:1">
+      <c r="A542" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
